--- a/review_Hachimura_evaluation_before_draft/review_Hachimura_evaluation_before_draft.xlsx
+++ b/review_Hachimura_evaluation_before_draft/review_Hachimura_evaluation_before_draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hisataka.yamazaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhaim\Desktop\DataForBlog\basketball_data_analysis\review_Hachimura_evaluation_before_draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460640D7-2AA0-4B1D-83AE-AC0DB913E2EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5692C-CEF7-4AD4-914F-8CCD3E3C07C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{3AD54012-9AB4-424D-8679-EE33A912AC9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{3AD54012-9AB4-424D-8679-EE33A912AC9E}"/>
   </bookViews>
   <sheets>
     <sheet name="PnR RollMan" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cut!$A$1:$Q$321</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PnR RollMan'!$A$1:$Q$205</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'PnR RollMan'!$D$2:$D$205</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'PnR RollMan'!$F$2:$F$205</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Cut!$D$2:$D$321</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Cut!$F$2:$F$321</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'PnR RollMan'!$F$2:$F$205</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'PnR RollMan'!$D$2:$D$205</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Cut!$F$2:$F$321</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Cut!$D$2:$D$321</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1800,7 +1800,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1978,12 +1978,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2011,7 +2005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2022,6 +2016,12 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2537,6 +2537,54 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>WAS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>と八村</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>のオフェンシブ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>レーティングの推移</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2966,7 +3014,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3002,7 +3050,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3038,7 +3086,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3072,7 +3120,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6454,8 +6502,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12571094" y="2245995"/>
-              <a:ext cx="7633335" cy="4616767"/>
+              <a:off x="12525374" y="2171700"/>
+              <a:ext cx="7610475" cy="4462462"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6532,8 +6580,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12513945" y="6312216"/>
-              <a:ext cx="7471410" cy="4047173"/>
+              <a:off x="12468225" y="6100761"/>
+              <a:ext cx="7448550" cy="3910013"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6615,8 +6663,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14594205" y="2068830"/>
-              <a:ext cx="4747260" cy="2840355"/>
+              <a:off x="14220825" y="2000250"/>
+              <a:ext cx="4724400" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6693,8 +6741,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14931390" y="4741545"/>
-              <a:ext cx="4724400" cy="2840355"/>
+              <a:off x="14535150" y="4581525"/>
+              <a:ext cx="4724400" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6734,13 +6782,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>3809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6767,16 +6815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>196214</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8900,7 +8948,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EB51049-424E-43C2-A8FC-6097BB46B80C}" name="ピボットテーブル2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EB51049-424E-43C2-A8FC-6097BB46B80C}" name="ピボットテーブル2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Y9:AA13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisPage" showAll="0">
@@ -9316,10 +9364,10 @@
       <selection pane="bottomLeft" activeCell="S1" sqref="S1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -20245,26 +20293,26 @@
       <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -37334,15 +37382,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA79B82-DDF3-4F97-AFC5-7A295A634597}">
   <dimension ref="A1:AP94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T19" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView tabSelected="1" topLeftCell="P52" workbookViewId="0">
+      <selection activeCell="U83" sqref="U83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -37406,7 +37454,7 @@
       <c r="T1" t="s">
         <v>423</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="12" t="s">
         <v>433</v>
       </c>
       <c r="Y1" t="s">
@@ -37997,7 +38045,7 @@
       <c r="T7" t="s">
         <v>425</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="Z7" t="s">
@@ -38127,7 +38175,7 @@
       <c r="T9" t="s">
         <v>425</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Y9" s="15" t="s">
         <v>436</v>
       </c>
       <c r="Z9" t="s">
@@ -38198,13 +38246,13 @@
       <c r="T10" t="s">
         <v>425</v>
       </c>
-      <c r="Y10" s="18" t="s">
+      <c r="Y10" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="17">
         <v>111.1</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="17">
         <v>115</v>
       </c>
     </row>
@@ -38269,13 +38317,13 @@
       <c r="T11" t="s">
         <v>425</v>
       </c>
-      <c r="Y11" s="18" t="s">
+      <c r="Y11" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="17">
         <v>110.6</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="AA11" s="17">
         <v>113.9</v>
       </c>
     </row>
@@ -38340,13 +38388,13 @@
       <c r="T12" t="s">
         <v>425</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="Y12" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="17">
         <v>111.3</v>
       </c>
-      <c r="AA12" s="19">
+      <c r="AA12" s="17">
         <v>115.3</v>
       </c>
     </row>
@@ -38411,13 +38459,13 @@
       <c r="T13" t="s">
         <v>425</v>
       </c>
-      <c r="Y13" s="18" t="s">
+      <c r="Y13" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="17">
         <v>333</v>
       </c>
-      <c r="AA13" s="19">
+      <c r="AA13" s="17">
         <v>344.2</v>
       </c>
     </row>
@@ -38483,7 +38531,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="16.2">
+    <row r="15" spans="1:42" ht="16.5">
       <c r="A15" t="s">
         <v>405</v>
       </c>
@@ -39109,7 +39157,7 @@
       <c r="T23" t="s">
         <v>425</v>
       </c>
-      <c r="X23" s="14" t="s">
+      <c r="X23" s="12" t="s">
         <v>448</v>
       </c>
       <c r="Y23" s="5" t="s">
@@ -39228,7 +39276,7 @@
       <c r="T24" t="s">
         <v>425</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Y24" s="9" t="s">
         <v>443</v>
       </c>
       <c r="Z24" s="6">
@@ -39344,7 +39392,7 @@
       <c r="T25" t="s">
         <v>425</v>
       </c>
-      <c r="Y25" s="15" t="s">
+      <c r="Y25" s="13" t="s">
         <v>444</v>
       </c>
       <c r="Z25" s="7">
@@ -39460,7 +39508,7 @@
       <c r="T26" t="s">
         <v>425</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="Y26" s="9" t="s">
         <v>445</v>
       </c>
       <c r="Z26" s="6">
@@ -39576,7 +39624,7 @@
       <c r="T27" t="s">
         <v>425</v>
       </c>
-      <c r="Y27" s="15" t="s">
+      <c r="Y27" s="13" t="s">
         <v>446</v>
       </c>
       <c r="Z27" s="7">
@@ -39631,7 +39679,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="13.8" thickBot="1">
+    <row r="28" spans="1:42" ht="13.5" thickBot="1">
       <c r="A28" t="s">
         <v>418</v>
       </c>
@@ -39692,58 +39740,58 @@
       <c r="T28" t="s">
         <v>425</v>
       </c>
-      <c r="Y28" s="12" t="s">
+      <c r="Y28" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="Z28" s="11">
         <v>6</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="11">
         <v>31.6</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AB28" s="11">
         <v>110.2</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AC28" s="11">
         <v>113.2</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AD28" s="11">
         <v>-3</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AE28" s="11">
         <v>12.1</v>
       </c>
-      <c r="AF28" s="13">
+      <c r="AF28" s="11">
         <v>2.5</v>
       </c>
-      <c r="AG28" s="13">
+      <c r="AG28" s="11">
         <v>18.5</v>
       </c>
-      <c r="AH28" s="13">
+      <c r="AH28" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AI28" s="13">
+      <c r="AI28" s="11">
         <v>19</v>
       </c>
-      <c r="AJ28" s="13">
+      <c r="AJ28" s="11">
         <v>11.3</v>
       </c>
-      <c r="AK28" s="13">
+      <c r="AK28" s="11">
         <v>7.4</v>
       </c>
-      <c r="AL28" s="13">
+      <c r="AL28" s="11">
         <v>39.6</v>
       </c>
-      <c r="AM28" s="13">
+      <c r="AM28" s="11">
         <v>50.9</v>
       </c>
-      <c r="AN28" s="13">
+      <c r="AN28" s="11">
         <v>15</v>
       </c>
-      <c r="AO28" s="13">
+      <c r="AO28" s="11">
         <v>101.81</v>
       </c>
-      <c r="AP28" s="13">
+      <c r="AP28" s="11">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -39932,7 +39980,7 @@
       <c r="T31" t="s">
         <v>425</v>
       </c>
-      <c r="AC31" s="14" t="s">
+      <c r="AC31" s="12" t="s">
         <v>449</v>
       </c>
     </row>
@@ -40062,55 +40110,55 @@
       <c r="T33" t="s">
         <v>427</v>
       </c>
-      <c r="Y33" s="10" t="s">
+      <c r="Y33" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="Z33" s="9" t="s">
+      <c r="Z33" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AA33" s="9" t="s">
+      <c r="AA33" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB33" s="9" t="s">
+      <c r="AB33" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AC33" s="9" t="s">
+      <c r="AC33" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AD33" s="9" t="s">
+      <c r="AD33" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="AE33" s="9" t="s">
+      <c r="AE33" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="AF33" s="9" t="s">
+      <c r="AF33" s="22" t="s">
         <v>382</v>
       </c>
       <c r="AG33" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AH33" s="9" t="s">
+      <c r="AH33" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="AI33" s="9" t="s">
+      <c r="AI33" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="AJ33" s="9" t="s">
+      <c r="AJ33" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="AK33" s="9" t="s">
+      <c r="AK33" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="AL33" s="9" t="s">
+      <c r="AL33" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AM33" s="9" t="s">
+      <c r="AM33" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="AN33" s="9" t="s">
+      <c r="AN33" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="AO33" s="9" t="s">
+      <c r="AO33" s="22" t="s">
         <v>391</v>
       </c>
     </row>
@@ -40175,28 +40223,28 @@
       <c r="T34" t="s">
         <v>427</v>
       </c>
-      <c r="X34" s="14" t="s">
+      <c r="X34" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
       <c r="AG34" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="22"/>
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
@@ -40259,7 +40307,7 @@
       <c r="T35" t="s">
         <v>427</v>
       </c>
-      <c r="Y35" s="11" t="s">
+      <c r="Y35" s="9" t="s">
         <v>443</v>
       </c>
       <c r="Z35" s="6">
@@ -40372,7 +40420,7 @@
       <c r="T36" t="s">
         <v>427</v>
       </c>
-      <c r="Y36" s="15" t="s">
+      <c r="Y36" s="13" t="s">
         <v>444</v>
       </c>
       <c r="Z36" s="7">
@@ -40485,7 +40533,7 @@
       <c r="T37" t="s">
         <v>427</v>
       </c>
-      <c r="Y37" s="11" t="s">
+      <c r="Y37" s="9" t="s">
         <v>445</v>
       </c>
       <c r="Z37" s="6">
@@ -40598,7 +40646,7 @@
       <c r="T38" t="s">
         <v>427</v>
       </c>
-      <c r="Y38" s="15" t="s">
+      <c r="Y38" s="13" t="s">
         <v>450</v>
       </c>
       <c r="Z38" s="7">
@@ -40711,7 +40759,7 @@
       <c r="T39" t="s">
         <v>427</v>
       </c>
-      <c r="Y39" s="11" t="s">
+      <c r="Y39" s="9" t="s">
         <v>446</v>
       </c>
       <c r="Z39" s="6">
@@ -40763,7 +40811,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="13.8" thickBot="1">
+    <row r="40" spans="1:41" ht="13.5" thickBot="1">
       <c r="A40" t="s">
         <v>401</v>
       </c>
@@ -40824,7 +40872,7 @@
       <c r="T40" t="s">
         <v>427</v>
       </c>
-      <c r="Y40" s="16" t="s">
+      <c r="Y40" s="14" t="s">
         <v>447</v>
       </c>
       <c r="Z40" s="8">
@@ -40999,7 +41047,7 @@
       <c r="T42" t="s">
         <v>427</v>
       </c>
-      <c r="AC42" s="14" t="s">
+      <c r="AC42" s="12" t="s">
         <v>452</v>
       </c>
     </row>
@@ -41129,7 +41177,7 @@
       <c r="AA44" t="s">
         <v>453</v>
       </c>
-      <c r="AB44" s="14" t="s">
+      <c r="AB44" s="12" t="s">
         <v>454</v>
       </c>
     </row>
@@ -41202,7 +41250,7 @@
         <v>457</v>
       </c>
       <c r="AA45">
-        <f>VLOOKUP(Y45,$Y$33:$AO$40,5,FALSE)</f>
+        <f t="shared" ref="AA45:AA50" si="1">VLOOKUP(Y45,$Y$33:$AO$40,5,FALSE)</f>
         <v>113.6</v>
       </c>
       <c r="AB45">
@@ -41272,14 +41320,14 @@
         <v>427</v>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" ref="Y46:Y50" si="1">Y36</f>
+        <f t="shared" ref="Y46:Y50" si="2">Y36</f>
         <v>November</v>
       </c>
       <c r="Z46" t="s">
         <v>458</v>
       </c>
       <c r="AA46">
-        <f>VLOOKUP(Y46,$Y$33:$AO$40,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>115.2</v>
       </c>
       <c r="AB46">
@@ -41349,14 +41397,14 @@
         <v>427</v>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>December</v>
       </c>
       <c r="Z47" t="s">
         <v>459</v>
       </c>
       <c r="AA47">
-        <f>VLOOKUP(Y47,$Y$33:$AO$40,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>117.3</v>
       </c>
       <c r="AB47">
@@ -41426,14 +41474,14 @@
         <v>427</v>
       </c>
       <c r="Y48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>January</v>
       </c>
       <c r="Z48" t="s">
         <v>460</v>
       </c>
       <c r="AA48">
-        <f>VLOOKUP(Y48,$Y$33:$AO$40,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>117.6</v>
       </c>
     </row>
@@ -41499,14 +41547,14 @@
         <v>427</v>
       </c>
       <c r="Y49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>February</v>
       </c>
       <c r="Z49" t="s">
         <v>461</v>
       </c>
       <c r="AA49">
-        <f>VLOOKUP(Y49,$Y$33:$AO$40,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>109.6</v>
       </c>
       <c r="AB49">
@@ -41576,14 +41624,14 @@
         <v>427</v>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>March</v>
       </c>
       <c r="Z50" t="s">
         <v>462</v>
       </c>
       <c r="AA50">
-        <f>VLOOKUP(Y50,$Y$33:$AO$40,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>113.7</v>
       </c>
       <c r="AB50">
@@ -41717,7 +41765,7 @@
       <c r="AA52" t="s">
         <v>455</v>
       </c>
-      <c r="AB52" s="14" t="s">
+      <c r="AB52" s="12" t="s">
         <v>456</v>
       </c>
     </row>
@@ -41790,7 +41838,7 @@
         <v>457</v>
       </c>
       <c r="AA53">
-        <f>VLOOKUP(Y53,$Y$33:$AO$40,4,FALSE)</f>
+        <f t="shared" ref="AA53:AA58" si="3">VLOOKUP(Y53,$Y$33:$AO$40,4,FALSE)</f>
         <v>113.6</v>
       </c>
       <c r="AB53">
@@ -41860,14 +41908,14 @@
         <v>427</v>
       </c>
       <c r="Y54" t="str">
-        <f t="shared" ref="Y54:Y58" si="2">Y46</f>
+        <f t="shared" ref="Y54:Y58" si="4">Y46</f>
         <v>November</v>
       </c>
       <c r="Z54" t="s">
         <v>458</v>
       </c>
       <c r="AA54">
-        <f>VLOOKUP(Y54,$Y$33:$AO$40,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="AB54">
@@ -41937,14 +41985,14 @@
         <v>427</v>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>December</v>
       </c>
       <c r="Z55" t="s">
         <v>459</v>
       </c>
       <c r="AA55">
-        <f>VLOOKUP(Y55,$Y$33:$AO$40,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>111.5</v>
       </c>
       <c r="AB55">
@@ -42014,14 +42062,14 @@
         <v>427</v>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>January</v>
       </c>
       <c r="Z56" t="s">
         <v>460</v>
       </c>
       <c r="AA56">
-        <f>VLOOKUP(Y56,$Y$33:$AO$40,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>110.4</v>
       </c>
     </row>
@@ -42087,14 +42135,14 @@
         <v>427</v>
       </c>
       <c r="Y57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>February</v>
       </c>
       <c r="Z57" t="s">
         <v>461</v>
       </c>
       <c r="AA57">
-        <f>VLOOKUP(Y57,$Y$33:$AO$40,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>109.6</v>
       </c>
       <c r="AB57">
@@ -42164,14 +42212,14 @@
         <v>427</v>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>March</v>
       </c>
       <c r="Z58" t="s">
         <v>462</v>
       </c>
       <c r="AA58">
-        <f>VLOOKUP(Y58,$Y$33:$AO$40,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>111.4</v>
       </c>
       <c r="AB58">
@@ -44232,6 +44280,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
     <mergeCell ref="AL33:AL34"/>
     <mergeCell ref="AM33:AM34"/>
     <mergeCell ref="AN33:AN34"/>
@@ -44242,12 +44296,6 @@
     <mergeCell ref="AI33:AI34"/>
     <mergeCell ref="AJ33:AJ34"/>
     <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AD33:AD34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -44256,7 +44304,8 @@
     <hyperlink ref="Y32" r:id="rId4" xr:uid="{A79E410A-89B4-4E71-9E53-B895437EAC27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -44268,7 +44317,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:26">
       <c r="B3" s="2" t="s">
@@ -44742,7 +44791,7 @@
         <f>SUM(D6:D10)/SUM(C6:C10)</f>
         <v>29.707317073170731</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <f>SUM(I6:I10)/SUM(J6:J10)</f>
         <v>0.27397260273972601</v>
       </c>
@@ -44752,17 +44801,17 @@
         <f>30*J6/D6</f>
         <v>2.481203007518797</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <f>J6/G6</f>
         <v>0.171875</v>
       </c>
     </row>
     <row r="15" spans="2:26">
       <c r="D15">
-        <f t="shared" ref="D15:D19" si="0">30*J7/D7</f>
+        <f t="shared" ref="D15:D17" si="0">30*J7/D7</f>
         <v>1.7701863354037266</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <f>J7/G7</f>
         <v>0.14960629921259844</v>
       </c>
@@ -44772,7 +44821,7 @@
         <f t="shared" si="0"/>
         <v>1.9636363636363636</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <f>J8/G8</f>
         <v>0.16071428571428573</v>
       </c>
@@ -44782,7 +44831,7 @@
         <f t="shared" si="0"/>
         <v>1.7114093959731544</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <f>J9/G9</f>
         <v>0.16190476190476191</v>
       </c>
@@ -44792,7 +44841,7 @@
         <f>30*J10/D10</f>
         <v>1.263157894736842</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <f>J10/G10</f>
         <v>0.16666666666666666</v>
       </c>
@@ -44871,8 +44920,8 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="39.6">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:17" ht="25.5">
+      <c r="B23" s="9" t="s">
         <v>488</v>
       </c>
       <c r="C23" s="6">
@@ -44881,7 +44930,7 @@
       <c r="D23" s="6">
         <v>38</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>0.23599999999999999</v>
       </c>
       <c r="F23" s="6">
@@ -44896,7 +44945,7 @@
       <c r="I23" s="6">
         <v>41.1</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="19">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="K23" s="6">
@@ -44908,7 +44957,7 @@
       <c r="M23" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="19">
         <v>0.154</v>
       </c>
       <c r="O23" s="6">
@@ -44922,7 +44971,7 @@
       </c>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>489</v>
       </c>
       <c r="C24" s="7">
@@ -44931,7 +44980,7 @@
       <c r="D24" s="7">
         <v>34</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>0.20699999999999999</v>
       </c>
       <c r="F24" s="7">
@@ -44946,7 +44995,7 @@
       <c r="I24" s="7">
         <v>41.5</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <v>0.20300000000000001</v>
       </c>
       <c r="K24" s="7">
@@ -44958,7 +45007,7 @@
       <c r="M24" s="7">
         <v>42.4</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="O24" s="7">
@@ -44971,8 +45020,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="26.4">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="2:17" ht="25.5">
+      <c r="B25" s="9" t="s">
         <v>490</v>
       </c>
       <c r="C25" s="6">
@@ -44981,7 +45030,7 @@
       <c r="D25" s="6">
         <v>41</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>0.55100000000000005</v>
       </c>
       <c r="F25" s="6">
@@ -44996,7 +45045,7 @@
       <c r="I25" s="6">
         <v>57.2</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="19">
         <v>0.55100000000000005</v>
       </c>
       <c r="K25" s="6">
@@ -45008,7 +45057,7 @@
       <c r="M25" s="6">
         <v>57.2</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="19">
         <v>0</v>
       </c>
       <c r="O25" s="6">
@@ -45021,8 +45070,8 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="13.8" thickBot="1">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:17" ht="13.5" thickBot="1">
+      <c r="B26" s="14" t="s">
         <v>492</v>
       </c>
       <c r="C26" s="8">
@@ -45031,7 +45080,7 @@
       <c r="D26" s="8">
         <v>3</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F26" s="8">
@@ -45046,7 +45095,7 @@
       <c r="I26" s="8">
         <v>0</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K26" s="8">
@@ -45058,7 +45107,7 @@
       <c r="M26" s="8">
         <v>0</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="21">
         <v>2E-3</v>
       </c>
       <c r="O26" s="8">
